--- a/price_list.xlsx
+++ b/price_list.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erhan/Documents/GitHub/cargo_wings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erhan\Documents\Github\cargo_wings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14529A20-586C-A44F-8902-A2B34AA1F548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E97821-62C5-4BC7-91DE-4A70D63AFC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{F1553EBD-527B-4C48-BFD8-1B6C18F70DD7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F1553EBD-527B-4C48-BFD8-1B6C18F70DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,16 +59,16 @@
     <t>Orange Pi compatible touch display</t>
   </si>
   <si>
-    <t>Components</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Price(peace)</t>
-  </si>
-  <si>
-    <t>Sum ($)</t>
+    <t>Bileşenler</t>
+  </si>
+  <si>
+    <t>Adet</t>
+  </si>
+  <si>
+    <t>Fiyat</t>
+  </si>
+  <si>
+    <t>Toplam ($)</t>
   </si>
 </sst>
 </file>
@@ -426,17 +426,17 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="206" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D9" sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.69921875" customWidth="1"/>
+    <col min="3" max="3" width="20.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -450,7 +450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -458,14 +458,14 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D2">
         <f>(B2*C2)</f>
-        <v>650</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -473,14 +473,14 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D8" si="0">(B3*C3)</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -495,7 +495,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -510,7 +510,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -525,7 +525,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -540,7 +540,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -555,10 +555,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D9">
         <f>SUM(D2:D8)</f>
-        <v>1785</v>
+        <v>1910</v>
       </c>
     </row>
   </sheetData>
